--- a/器件薄膜数据.xlsx
+++ b/器件薄膜数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33767\boxue\boxue\ML-Pero\SL-PerovskiteOpt-master\Active Perovskite Optimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thijsstuyver/Desktop/Perovskite_my_version/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75C5450-4D79-41FD-8386-0C823F312D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3E6C76-6E04-0E48-8D2F-6E85D88AC41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35200" yWindow="2960" windowWidth="39720" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022_07_15_film" sheetId="2" r:id="rId1"/>
@@ -24,10 +24,21 @@
     <sheet name="2022_08_29_film" sheetId="9" r:id="rId9"/>
     <sheet name="2022_08_29_device" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -144,13 +155,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -177,14 +188,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -197,7 +208,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -215,7 +226,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -580,7 +591,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -864,22 +875,21 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.58203125" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="2" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="6" max="6" width="16.08203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16" style="4" customWidth="1"/>
     <col min="7" max="7" width="14" style="4" customWidth="1"/>
     <col min="8" max="8" width="16" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15.25" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" style="4" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.9140625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="33" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -914,7 +924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -949,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -984,7 +994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1019,7 +1029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -1054,7 +1064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -1089,7 +1099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -1124,7 +1134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -1159,7 +1169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -1194,7 +1204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1229,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1264,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -1299,7 +1309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -1334,7 +1344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1369,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1404,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1439,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1474,7 +1484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -1509,7 +1519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -1544,7 +1554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1579,7 +1589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1614,7 +1624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1637,29 +1647,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8E6C36-B971-470E-9BD1-25724C0E3491}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N10" sqref="K10:N10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="11.9140625" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
-    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="11" max="11" width="17.75" customWidth="1"/>
-    <col min="12" max="12" width="18.25" customWidth="1"/>
-    <col min="13" max="13" width="17.25" customWidth="1"/>
-    <col min="14" max="14" width="16.08203125" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" customWidth="1"/>
+    <col min="13" max="13" width="17.1640625" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1703,7 +1713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="35">
         <v>80</v>
       </c>
@@ -1748,7 +1758,7 @@
       </c>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="35">
         <v>80</v>
       </c>
@@ -1793,7 +1803,7 @@
       </c>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="35">
         <v>81</v>
       </c>
@@ -1838,7 +1848,7 @@
       </c>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="35">
         <v>81</v>
       </c>
@@ -1883,7 +1893,7 @@
       </c>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="35">
         <v>81</v>
       </c>
@@ -1928,7 +1938,7 @@
       </c>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="35">
         <v>82</v>
       </c>
@@ -1973,7 +1983,7 @@
       </c>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="35">
         <v>82</v>
       </c>
@@ -2018,7 +2028,7 @@
       </c>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="35">
         <v>82</v>
       </c>
@@ -2063,7 +2073,7 @@
       </c>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="51">
         <v>83</v>
       </c>
@@ -2108,7 +2118,7 @@
       </c>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="51">
         <v>83</v>
       </c>
@@ -2153,7 +2163,7 @@
       </c>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="52">
         <v>84</v>
       </c>
@@ -2198,7 +2208,7 @@
       </c>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="52">
         <v>84</v>
       </c>
@@ -2243,7 +2253,7 @@
       </c>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="52">
         <v>84</v>
       </c>
@@ -2288,7 +2298,7 @@
       </c>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="35">
         <v>85</v>
       </c>
@@ -2333,7 +2343,7 @@
       </c>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="35">
         <v>85</v>
       </c>
@@ -2378,7 +2388,7 @@
       </c>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="35">
         <v>86</v>
       </c>
@@ -2423,7 +2433,7 @@
       </c>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="35">
         <v>86</v>
       </c>
@@ -2468,7 +2478,7 @@
       </c>
       <c r="O18" s="5"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="35">
         <v>87</v>
       </c>
@@ -2513,7 +2523,7 @@
       </c>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="35">
         <v>87</v>
       </c>
@@ -2558,7 +2568,7 @@
       </c>
       <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="35">
         <v>87</v>
       </c>
@@ -2603,7 +2613,7 @@
       </c>
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="35">
         <v>88</v>
       </c>
@@ -2648,7 +2658,7 @@
       </c>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="35">
         <v>88</v>
       </c>
@@ -2693,7 +2703,7 @@
       </c>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="35">
         <v>88</v>
       </c>
@@ -2738,7 +2748,7 @@
       </c>
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="35">
         <v>89</v>
       </c>
@@ -2783,7 +2793,7 @@
       </c>
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="35">
         <v>89</v>
       </c>
@@ -2828,7 +2838,7 @@
       </c>
       <c r="O26" s="5"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="35">
         <v>90</v>
       </c>
@@ -2873,7 +2883,7 @@
       </c>
       <c r="O27" s="5"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="35">
         <v>90</v>
       </c>
@@ -2918,7 +2928,7 @@
       </c>
       <c r="O28" s="5"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>91</v>
       </c>
@@ -2963,7 +2973,7 @@
       </c>
       <c r="O29" s="5"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>91</v>
       </c>
@@ -3008,7 +3018,7 @@
       </c>
       <c r="O30" s="5"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>92</v>
       </c>
@@ -3053,7 +3063,7 @@
       </c>
       <c r="O31" s="5"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>92</v>
       </c>
@@ -3098,7 +3108,7 @@
       </c>
       <c r="O32" s="5"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>92</v>
       </c>
@@ -3143,7 +3153,7 @@
       </c>
       <c r="O33" s="5"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="50">
         <v>93</v>
       </c>
@@ -3188,7 +3198,7 @@
       </c>
       <c r="O34" s="5"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="50">
         <v>93</v>
       </c>
@@ -3233,7 +3243,7 @@
       </c>
       <c r="O35" s="5"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="50">
         <v>93</v>
       </c>
@@ -3278,7 +3288,7 @@
       </c>
       <c r="O36" s="5"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>94</v>
       </c>
@@ -3323,7 +3333,7 @@
       </c>
       <c r="O37" s="5"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>94</v>
       </c>
@@ -3368,7 +3378,7 @@
       </c>
       <c r="O38" s="5"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>95</v>
       </c>
@@ -3413,7 +3423,7 @@
       </c>
       <c r="O39" s="5"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>95</v>
       </c>
@@ -3458,7 +3468,7 @@
       </c>
       <c r="O40" s="5"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>96</v>
       </c>
@@ -3503,7 +3513,7 @@
       </c>
       <c r="O41" s="5"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>96</v>
       </c>
@@ -3548,7 +3558,7 @@
       </c>
       <c r="O42" s="5"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>97</v>
       </c>
@@ -3593,7 +3603,7 @@
       </c>
       <c r="O43" s="5"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>97</v>
       </c>
@@ -3638,7 +3648,7 @@
       </c>
       <c r="O44" s="5"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>98</v>
       </c>
@@ -3683,7 +3693,7 @@
       </c>
       <c r="O45" s="5"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>98</v>
       </c>
@@ -3728,7 +3738,7 @@
       </c>
       <c r="O46" s="5"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>98</v>
       </c>
@@ -3773,7 +3783,7 @@
       </c>
       <c r="O47" s="5"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>99</v>
       </c>
@@ -3818,7 +3828,7 @@
       </c>
       <c r="O48" s="5"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>99</v>
       </c>
@@ -3873,29 +3883,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N268"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="14.58203125" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="2" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="6" max="6" width="16.08203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16" style="4" customWidth="1"/>
     <col min="7" max="7" width="14" style="4" customWidth="1"/>
     <col min="8" max="8" width="16" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15.25" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" style="4" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" style="4" customWidth="1"/>
     <col min="11" max="11" width="37" style="7" customWidth="1"/>
-    <col min="12" max="12" width="37.4140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="33.4140625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="42.75" style="7" customWidth="1"/>
+    <col min="12" max="12" width="37.33203125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="42.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="33" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3939,7 +3948,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3983,7 +3992,7 @@
         <v>23.880500000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4027,7 +4036,7 @@
         <v>26.283999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -4071,7 +4080,7 @@
         <v>25.302199999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -4115,7 +4124,7 @@
         <v>23.997800000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -4159,7 +4168,7 @@
         <v>24.1326</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -4203,7 +4212,7 @@
         <v>23.0306</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>4</v>
       </c>
@@ -4247,7 +4256,7 @@
         <v>24.146699999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>4</v>
       </c>
@@ -4291,7 +4300,7 @@
         <v>26.095099999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>4</v>
       </c>
@@ -4335,7 +4344,7 @@
         <v>25.779</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>4</v>
       </c>
@@ -4379,7 +4388,7 @@
         <v>25.465900000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -4423,7 +4432,7 @@
         <v>25.488</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>5</v>
       </c>
@@ -4467,7 +4476,7 @@
         <v>25.480799999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -4511,7 +4520,7 @@
         <v>25.476500000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>5</v>
       </c>
@@ -4555,7 +4564,7 @@
         <v>25.305299999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>6</v>
       </c>
@@ -4599,7 +4608,7 @@
         <v>24.1083</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>6</v>
       </c>
@@ -4643,7 +4652,7 @@
         <v>26.077100000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -4687,7 +4696,7 @@
         <v>25.782900000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>6</v>
       </c>
@@ -4731,7 +4740,7 @@
         <v>24.105799999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>7</v>
       </c>
@@ -4775,7 +4784,7 @@
         <v>25.308299999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>7</v>
       </c>
@@ -4819,7 +4828,7 @@
         <v>25.7758</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>7</v>
       </c>
@@ -4863,7 +4872,7 @@
         <v>25.241342</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>7</v>
       </c>
@@ -4907,7 +4916,7 @@
         <v>24.194022</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>8</v>
       </c>
@@ -4951,7 +4960,7 @@
         <v>21.432625999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>8</v>
       </c>
@@ -4995,7 +5004,7 @@
         <v>25.561185999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>8</v>
       </c>
@@ -5039,7 +5048,7 @@
         <v>23.444900000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>8</v>
       </c>
@@ -5083,7 +5092,7 @@
         <v>24.040427999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>9</v>
       </c>
@@ -5127,7 +5136,7 @@
         <v>25.7562</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>10</v>
       </c>
@@ -5171,7 +5180,7 @@
         <v>22.936699999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>11</v>
       </c>
@@ -5215,7 +5224,7 @@
         <v>25.4514</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>11</v>
       </c>
@@ -5259,7 +5268,7 @@
         <v>25.485700000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>11</v>
       </c>
@@ -5303,7 +5312,7 @@
         <v>25.182592</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>11</v>
       </c>
@@ -5347,7 +5356,7 @@
         <v>24.776335</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>12</v>
       </c>
@@ -5391,7 +5400,7 @@
         <v>25.710100000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>12</v>
       </c>
@@ -5435,7 +5444,7 @@
         <v>22.476800000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>12</v>
       </c>
@@ -5479,7 +5488,7 @@
         <v>25.955500000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>12</v>
       </c>
@@ -5523,7 +5532,7 @@
         <v>24.363499999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>13</v>
       </c>
@@ -5567,7 +5576,7 @@
         <v>22.803999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>14</v>
       </c>
@@ -5611,7 +5620,7 @@
         <v>23.880500000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>15</v>
       </c>
@@ -5655,7 +5664,7 @@
         <v>24.221399999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>16</v>
       </c>
@@ -5699,7 +5708,7 @@
         <v>24.363499999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>17</v>
       </c>
@@ -5743,7 +5752,7 @@
         <v>25.633199999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>17</v>
       </c>
@@ -5787,7 +5796,7 @@
         <v>24.8691</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>17</v>
       </c>
@@ -5831,7 +5840,7 @@
         <v>24.403099999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>17</v>
       </c>
@@ -5875,7 +5884,7 @@
         <v>24.901700000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>18</v>
       </c>
@@ -5919,7 +5928,7 @@
         <v>18.174900000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>18</v>
       </c>
@@ -5963,7 +5972,7 @@
         <v>25.007899999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>18</v>
       </c>
@@ -6007,7 +6016,7 @@
         <v>24.7727</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>18</v>
       </c>
@@ -6051,7 +6060,7 @@
         <v>25.032800000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>19</v>
       </c>
@@ -6095,7 +6104,7 @@
         <v>25.021799999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>20</v>
       </c>
@@ -6139,7 +6148,7 @@
         <v>24.4635</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -6149,13 +6158,13 @@
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
-      <c r="J52" s="5"/>
+      <c r="J52" s="2"/>
       <c r="K52" s="11"/>
       <c r="L52" s="11"/>
       <c r="M52" s="11"/>
       <c r="N52" s="11"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -6165,13 +6174,13 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
-      <c r="J53" s="5"/>
+      <c r="J53" s="2"/>
       <c r="K53" s="11"/>
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
       <c r="N53" s="11"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -6187,7 +6196,7 @@
       <c r="M54" s="11"/>
       <c r="N54" s="11"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -6203,7 +6212,7 @@
       <c r="M55" s="11"/>
       <c r="N55" s="11"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -6219,13 +6228,13 @@
       <c r="M56" s="11"/>
       <c r="N56" s="11"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K58" s="12"/>
       <c r="L58" s="12"/>
       <c r="M58" s="12"/>
       <c r="N58" s="12"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -6237,7 +6246,7 @@
       <c r="I61" s="2"/>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -6249,7 +6258,7 @@
       <c r="I62" s="2"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -6261,7 +6270,7 @@
       <c r="I63" s="2"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -6273,7 +6282,7 @@
       <c r="I64" s="2"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -6285,7 +6294,7 @@
       <c r="I65" s="2"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -6297,7 +6306,7 @@
       <c r="I66" s="2"/>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -6309,7 +6318,7 @@
       <c r="I67" s="2"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -6321,7 +6330,7 @@
       <c r="I68" s="2"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -6333,7 +6342,7 @@
       <c r="I69" s="2"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -6345,7 +6354,7 @@
       <c r="I70" s="2"/>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -6357,7 +6366,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -6369,7 +6378,7 @@
       <c r="I72" s="2"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -6381,7 +6390,7 @@
       <c r="I73" s="2"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -6393,25 +6402,25 @@
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K76" s="12"/>
       <c r="L76" s="12"/>
       <c r="M76" s="12"/>
       <c r="N76" s="12"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K77" s="12"/>
       <c r="L77" s="12"/>
       <c r="M77" s="12"/>
       <c r="N77" s="12"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K78" s="12"/>
       <c r="L78" s="12"/>
       <c r="M78" s="12"/>
       <c r="N78" s="12"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
@@ -6420,145 +6429,145 @@
       <c r="M80" s="12"/>
       <c r="N80" s="12"/>
     </row>
-    <row r="81" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K81" s="12"/>
       <c r="L81" s="12"/>
       <c r="M81" s="12"/>
       <c r="N81" s="12"/>
     </row>
-    <row r="86" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K86" s="12"/>
       <c r="L86" s="12"/>
       <c r="M86" s="12"/>
       <c r="N86" s="12"/>
     </row>
-    <row r="100" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K100" s="12"/>
       <c r="L100" s="12"/>
       <c r="M100" s="12"/>
       <c r="N100" s="12"/>
     </row>
-    <row r="119" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K119" s="12"/>
       <c r="L119" s="12"/>
       <c r="M119" s="12"/>
       <c r="N119" s="12"/>
     </row>
-    <row r="127" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K127" s="10"/>
       <c r="L127" s="10"/>
       <c r="M127" s="10"/>
       <c r="N127" s="10"/>
     </row>
-    <row r="134" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K134" s="12"/>
       <c r="L134" s="12"/>
       <c r="M134" s="12"/>
       <c r="N134" s="12"/>
     </row>
-    <row r="136" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K136" s="12"/>
       <c r="L136" s="12"/>
       <c r="M136" s="12"/>
       <c r="N136" s="12"/>
     </row>
-    <row r="153" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K153" s="12"/>
       <c r="L153" s="12"/>
       <c r="M153" s="12"/>
       <c r="N153" s="12"/>
     </row>
-    <row r="162" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="162" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K162" s="12"/>
       <c r="L162" s="12"/>
       <c r="M162" s="12"/>
       <c r="N162" s="12"/>
     </row>
-    <row r="164" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K164" s="12"/>
       <c r="L164" s="12"/>
       <c r="M164" s="12"/>
       <c r="N164" s="12"/>
     </row>
-    <row r="169" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K169" s="12"/>
       <c r="L169" s="12"/>
       <c r="M169" s="12"/>
       <c r="N169" s="12"/>
     </row>
-    <row r="186" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="186" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K186" s="12"/>
       <c r="L186" s="12"/>
       <c r="M186" s="12"/>
       <c r="N186" s="12"/>
     </row>
-    <row r="193" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="193" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K193" s="12"/>
       <c r="L193" s="12"/>
       <c r="M193" s="12"/>
       <c r="N193" s="12"/>
     </row>
-    <row r="199" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="199" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K199" s="12"/>
       <c r="L199" s="12"/>
       <c r="M199" s="12"/>
       <c r="N199" s="12"/>
     </row>
-    <row r="224" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="224" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K224" s="12"/>
       <c r="L224" s="12"/>
       <c r="M224" s="12"/>
       <c r="N224" s="12"/>
     </row>
-    <row r="226" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="226" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K226" s="12"/>
       <c r="L226" s="12"/>
       <c r="M226" s="12"/>
       <c r="N226" s="12"/>
     </row>
-    <row r="229" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="229" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K229" s="10"/>
       <c r="L229" s="10"/>
       <c r="M229" s="10"/>
       <c r="N229" s="10"/>
     </row>
-    <row r="240" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="240" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K240" s="10"/>
       <c r="L240" s="10"/>
       <c r="M240" s="10"/>
       <c r="N240" s="10"/>
     </row>
-    <row r="241" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="241" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K241" s="10"/>
       <c r="L241" s="10"/>
       <c r="M241" s="10"/>
       <c r="N241" s="10"/>
     </row>
-    <row r="243" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="243" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K243" s="12"/>
       <c r="L243" s="12"/>
       <c r="M243" s="12"/>
       <c r="N243" s="12"/>
     </row>
-    <row r="245" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="245" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K245" s="10"/>
       <c r="L245" s="10"/>
       <c r="M245" s="10"/>
       <c r="N245" s="10"/>
     </row>
-    <row r="254" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="254" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K254" s="12"/>
       <c r="L254" s="12"/>
       <c r="M254" s="12"/>
       <c r="N254" s="12"/>
     </row>
-    <row r="266" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="266" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K266" s="12"/>
       <c r="L266" s="12"/>
       <c r="M266" s="12"/>
       <c r="N266" s="12"/>
     </row>
-    <row r="268" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="268" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K268" s="12"/>
       <c r="L268" s="12"/>
       <c r="M268" s="12"/>
@@ -6578,22 +6587,21 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.58203125" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="2" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="6" max="6" width="16.08203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16" style="4" customWidth="1"/>
     <col min="7" max="7" width="14" style="4" customWidth="1"/>
     <col min="8" max="8" width="16" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15.25" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" style="4" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" style="4" customWidth="1"/>
     <col min="11" max="11" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="33" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6628,7 +6636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="18">
         <v>21</v>
       </c>
@@ -6663,7 +6671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>22</v>
       </c>
@@ -6698,7 +6706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
         <v>23</v>
       </c>
@@ -6733,7 +6741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <v>24</v>
       </c>
@@ -6768,7 +6776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <v>25</v>
       </c>
@@ -6803,7 +6811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <v>26</v>
       </c>
@@ -6838,7 +6846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <v>27</v>
       </c>
@@ -6873,7 +6881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="33">
         <v>28</v>
       </c>
@@ -6908,7 +6916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <v>29</v>
       </c>
@@ -6943,7 +6951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <v>30</v>
       </c>
@@ -6978,7 +6986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <v>31</v>
       </c>
@@ -7013,7 +7021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <v>32</v>
       </c>
@@ -7048,7 +7056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <v>33</v>
       </c>
@@ -7083,7 +7091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <v>34</v>
       </c>
@@ -7118,7 +7126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <v>35</v>
       </c>
@@ -7153,7 +7161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <v>36</v>
       </c>
@@ -7188,7 +7196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <v>37</v>
       </c>
@@ -7223,7 +7231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
         <v>38</v>
       </c>
@@ -7258,7 +7266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <v>39</v>
       </c>
@@ -7293,7 +7301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
         <v>40</v>
       </c>
@@ -7338,29 +7346,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EEF5206-2E45-40BA-94F5-2F790E97DCF8}">
   <dimension ref="A1:N224"/>
   <sheetViews>
-    <sheetView topLeftCell="C38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J70"/>
+    <sheetView topLeftCell="C35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="14.58203125" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="2" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="6" max="6" width="16.08203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16" style="4" customWidth="1"/>
     <col min="7" max="7" width="14" style="4" customWidth="1"/>
     <col min="8" max="8" width="16" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15.25" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" style="4" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" style="4" customWidth="1"/>
     <col min="11" max="11" width="37" style="7" customWidth="1"/>
-    <col min="12" max="12" width="37.4140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="33.4140625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="42.75" style="7" customWidth="1"/>
+    <col min="12" max="12" width="37.33203125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="42.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="33" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7404,7 +7411,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>21</v>
       </c>
@@ -7448,7 +7455,7 @@
         <v>25.426487000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>22</v>
       </c>
@@ -7492,7 +7499,7 @@
         <v>25.573978</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>22</v>
       </c>
@@ -7536,7 +7543,7 @@
         <v>25.338930999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>22</v>
       </c>
@@ -7580,7 +7587,7 @@
         <v>25.414062999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>22</v>
       </c>
@@ -7624,7 +7631,7 @@
         <v>25.226299999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <v>23</v>
       </c>
@@ -7668,7 +7675,7 @@
         <v>25.039300000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>23</v>
       </c>
@@ -7712,7 +7719,7 @@
         <v>24.591799999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <v>24</v>
       </c>
@@ -7756,7 +7763,7 @@
         <v>20.22221</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <v>24</v>
       </c>
@@ -7800,7 +7807,7 @@
         <v>23.251200000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="17">
         <v>24</v>
       </c>
@@ -7844,7 +7851,7 @@
         <v>20.544429000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
         <v>24</v>
       </c>
@@ -7888,7 +7895,7 @@
         <v>24.143737999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
         <v>25</v>
       </c>
@@ -7932,7 +7939,7 @@
         <v>24.165482999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
         <v>25</v>
       </c>
@@ -7976,7 +7983,7 @@
         <v>25.571484000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="19">
         <v>25</v>
       </c>
@@ -8020,7 +8027,7 @@
         <v>24.643408000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="19">
         <v>25</v>
       </c>
@@ -8064,7 +8071,7 @@
         <v>25.952279000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="20">
         <v>26</v>
       </c>
@@ -8108,7 +8115,7 @@
         <v>25.4314</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="20">
         <v>26</v>
       </c>
@@ -8152,7 +8159,7 @@
         <v>25.0273</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="20">
         <v>26</v>
       </c>
@@ -8196,7 +8203,7 @@
         <v>25.565899999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="20">
         <v>26</v>
       </c>
@@ -8240,7 +8247,7 @@
         <v>25.5107</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
         <v>27</v>
       </c>
@@ -8284,7 +8291,7 @@
         <v>24.680692000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="21">
         <v>27</v>
       </c>
@@ -8328,7 +8335,7 @@
         <v>25.5685</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="21">
         <v>27</v>
       </c>
@@ -8372,7 +8379,7 @@
         <v>25.369199999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="21">
         <v>27</v>
       </c>
@@ -8416,7 +8423,7 @@
         <v>25.459399999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <v>28</v>
       </c>
@@ -8460,7 +8467,7 @@
         <v>25.366</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>28</v>
       </c>
@@ -8504,7 +8511,7 @@
         <v>24.48</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
         <v>28</v>
       </c>
@@ -8548,7 +8555,7 @@
         <v>24.443000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
         <v>28</v>
       </c>
@@ -8592,7 +8599,7 @@
         <v>25.3718</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="23">
         <v>29</v>
       </c>
@@ -8636,7 +8643,7 @@
         <v>25.4512</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="23">
         <v>29</v>
       </c>
@@ -8680,7 +8687,7 @@
         <v>25.487100000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="23">
         <v>29</v>
       </c>
@@ -8724,7 +8731,7 @@
         <v>25.376042999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="23">
         <v>29</v>
       </c>
@@ -8768,7 +8775,7 @@
         <v>26.039795999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="24">
         <v>30</v>
       </c>
@@ -8812,7 +8819,7 @@
         <v>25.119399999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="24">
         <v>30</v>
       </c>
@@ -8856,7 +8863,7 @@
         <v>25.355399999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="24">
         <v>30</v>
       </c>
@@ -8900,7 +8907,7 @@
         <v>25.285799999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="24">
         <v>30</v>
       </c>
@@ -8944,7 +8951,7 @@
         <v>25.155100000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="25">
         <v>31</v>
       </c>
@@ -8988,7 +8995,7 @@
         <v>23.900534</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="25">
         <v>31</v>
       </c>
@@ -9032,7 +9039,7 @@
         <v>22.589361</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="25">
         <v>31</v>
       </c>
@@ -9076,7 +9083,7 @@
         <v>25.951740999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="25">
         <v>31</v>
       </c>
@@ -9120,7 +9127,7 @@
         <v>25.522600000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="26">
         <v>32</v>
       </c>
@@ -9164,7 +9171,7 @@
         <v>25.259399999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="26">
         <v>32</v>
       </c>
@@ -9208,7 +9215,7 @@
         <v>25.274000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="26">
         <v>32</v>
       </c>
@@ -9252,7 +9259,7 @@
         <v>25.4755</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="26">
         <v>32</v>
       </c>
@@ -9296,7 +9303,7 @@
         <v>25.4755</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="27">
         <v>33</v>
       </c>
@@ -9340,7 +9347,7 @@
         <v>25.566299999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="27">
         <v>33</v>
       </c>
@@ -9384,7 +9391,7 @@
         <v>25.5899</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="27">
         <v>33</v>
       </c>
@@ -9428,7 +9435,7 @@
         <v>25.519600000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="27">
         <v>33</v>
       </c>
@@ -9472,7 +9479,7 @@
         <v>25.256900000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="28">
         <v>34</v>
       </c>
@@ -9516,7 +9523,7 @@
         <v>25.5047</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="28">
         <v>34</v>
       </c>
@@ -9560,7 +9567,7 @@
         <v>25.288799999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="28">
         <v>34</v>
       </c>
@@ -9604,7 +9611,7 @@
         <v>25.161258</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="28">
         <v>34</v>
       </c>
@@ -9648,7 +9655,7 @@
         <v>24.86618</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="29">
         <v>35</v>
       </c>
@@ -9692,7 +9699,7 @@
         <v>24.942589999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="29">
         <v>35</v>
       </c>
@@ -9736,7 +9743,7 @@
         <v>25.5076</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="29">
         <v>35</v>
       </c>
@@ -9780,7 +9787,7 @@
         <v>28.545593</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="29">
         <v>35</v>
       </c>
@@ -9824,7 +9831,7 @@
         <v>26.170341000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="30">
         <v>36</v>
       </c>
@@ -9868,7 +9875,7 @@
         <v>25.813800000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="30">
         <v>36</v>
       </c>
@@ -9912,7 +9919,7 @@
         <v>25.621099999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="30">
         <v>36</v>
       </c>
@@ -9956,7 +9963,7 @@
         <v>25.5076</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="30">
         <v>36</v>
       </c>
@@ -10000,7 +10007,7 @@
         <v>25.616299999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="27">
         <v>37</v>
       </c>
@@ -10044,7 +10051,7 @@
         <v>25.576599999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="27">
         <v>37</v>
       </c>
@@ -10088,7 +10095,7 @@
         <v>25.825099999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="27">
         <v>37</v>
       </c>
@@ -10132,7 +10139,7 @@
         <v>25.610399999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="27">
         <v>37</v>
       </c>
@@ -10176,7 +10183,7 @@
         <v>25.779199999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="31">
         <v>38</v>
       </c>
@@ -10220,7 +10227,7 @@
         <v>23.841843999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="31">
         <v>38</v>
       </c>
@@ -10264,7 +10271,7 @@
         <v>20.993106999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="31">
         <v>38</v>
       </c>
@@ -10308,7 +10315,7 @@
         <v>24.094045000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="31">
         <v>38</v>
       </c>
@@ -10352,7 +10359,7 @@
         <v>24.871400000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>39</v>
       </c>
@@ -10396,7 +10403,7 @@
         <v>24.968299999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>40</v>
       </c>
@@ -10440,7 +10447,7 @@
         <v>23.834026000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -10452,403 +10459,403 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K72" s="14"/>
       <c r="L72" s="14"/>
       <c r="M72" s="14"/>
       <c r="N72" s="14"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K73" s="14"/>
       <c r="L73" s="14"/>
       <c r="M73" s="14"/>
       <c r="N73" s="14"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K74" s="14"/>
       <c r="L74" s="14"/>
       <c r="M74" s="14"/>
       <c r="N74" s="14"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K75" s="14"/>
       <c r="L75" s="14"/>
       <c r="M75" s="14"/>
       <c r="N75" s="14"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K76" s="14"/>
       <c r="L76" s="14"/>
       <c r="M76" s="14"/>
       <c r="N76" s="14"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K77" s="14"/>
       <c r="L77" s="14"/>
       <c r="M77" s="14"/>
       <c r="N77" s="14"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K78" s="14"/>
       <c r="L78" s="14"/>
       <c r="M78" s="14"/>
       <c r="N78" s="14"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K79" s="14"/>
       <c r="L79" s="14"/>
       <c r="M79" s="14"/>
       <c r="N79" s="14"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K80" s="14"/>
       <c r="L80" s="14"/>
       <c r="M80" s="14"/>
       <c r="N80" s="14"/>
     </row>
-    <row r="81" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K81" s="14"/>
       <c r="L81" s="14"/>
       <c r="M81" s="14"/>
       <c r="N81" s="14"/>
     </row>
-    <row r="82" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K82" s="14"/>
       <c r="L82" s="14"/>
       <c r="M82" s="14"/>
       <c r="N82" s="14"/>
     </row>
-    <row r="83" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K83" s="14"/>
       <c r="L83" s="14"/>
       <c r="M83" s="14"/>
       <c r="N83" s="14"/>
     </row>
-    <row r="84" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K84" s="14"/>
       <c r="L84" s="14"/>
       <c r="M84" s="14"/>
       <c r="N84" s="14"/>
     </row>
-    <row r="85" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K85" s="14"/>
       <c r="L85" s="14"/>
       <c r="M85" s="14"/>
       <c r="N85" s="14"/>
     </row>
-    <row r="86" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K86" s="14"/>
       <c r="L86" s="14"/>
       <c r="M86" s="14"/>
       <c r="N86" s="14"/>
     </row>
-    <row r="87" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
     </row>
-    <row r="88" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K88" s="14"/>
       <c r="L88" s="14"/>
       <c r="M88" s="14"/>
       <c r="N88" s="14"/>
     </row>
-    <row r="89" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K89" s="14"/>
       <c r="L89" s="14"/>
       <c r="M89" s="14"/>
       <c r="N89" s="14"/>
     </row>
-    <row r="90" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
     </row>
-    <row r="91" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K91" s="14"/>
       <c r="L91" s="14"/>
       <c r="M91" s="14"/>
       <c r="N91" s="14"/>
     </row>
-    <row r="92" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K92" s="14"/>
       <c r="L92" s="14"/>
       <c r="M92" s="14"/>
       <c r="N92" s="14"/>
     </row>
-    <row r="93" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K93" s="14"/>
       <c r="L93" s="14"/>
       <c r="M93" s="14"/>
       <c r="N93" s="14"/>
     </row>
-    <row r="94" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
     </row>
-    <row r="95" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K95" s="14"/>
       <c r="L95" s="14"/>
       <c r="M95" s="14"/>
       <c r="N95" s="14"/>
     </row>
-    <row r="96" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K96" s="14"/>
       <c r="L96" s="14"/>
       <c r="M96" s="14"/>
       <c r="N96" s="14"/>
     </row>
-    <row r="97" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K97" s="14"/>
       <c r="L97" s="14"/>
       <c r="M97" s="14"/>
       <c r="N97" s="14"/>
     </row>
-    <row r="98" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K98" s="14"/>
       <c r="L98" s="14"/>
       <c r="M98" s="14"/>
       <c r="N98" s="14"/>
     </row>
-    <row r="99" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K99" s="14"/>
       <c r="L99" s="14"/>
       <c r="M99" s="14"/>
       <c r="N99" s="14"/>
     </row>
-    <row r="100" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K100" s="14"/>
       <c r="L100" s="14"/>
       <c r="M100" s="14"/>
       <c r="N100" s="14"/>
     </row>
-    <row r="101" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K101" s="14"/>
       <c r="L101" s="14"/>
       <c r="M101" s="14"/>
       <c r="N101" s="14"/>
     </row>
-    <row r="102" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K102" s="14"/>
       <c r="L102" s="14"/>
       <c r="M102" s="14"/>
       <c r="N102" s="14"/>
     </row>
-    <row r="103" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
     </row>
-    <row r="104" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
     </row>
-    <row r="105" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
     </row>
-    <row r="106" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K106" s="5"/>
       <c r="L106" s="5"/>
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
     </row>
-    <row r="107" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K107" s="14"/>
       <c r="L107" s="14"/>
       <c r="M107" s="14"/>
       <c r="N107" s="14"/>
     </row>
-    <row r="108" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K108" s="14"/>
       <c r="L108" s="14"/>
       <c r="M108" s="14"/>
       <c r="N108" s="14"/>
     </row>
-    <row r="109" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K109" s="14"/>
       <c r="L109" s="14"/>
       <c r="M109" s="14"/>
       <c r="N109" s="14"/>
     </row>
-    <row r="110" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K110" s="14"/>
       <c r="L110" s="14"/>
       <c r="M110" s="14"/>
       <c r="N110" s="14"/>
     </row>
-    <row r="111" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K111" s="14"/>
       <c r="L111" s="14"/>
       <c r="M111" s="14"/>
       <c r="N111" s="14"/>
     </row>
-    <row r="112" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K112" s="14"/>
       <c r="L112" s="14"/>
       <c r="M112" s="14"/>
       <c r="N112" s="14"/>
     </row>
-    <row r="113" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K113" s="14"/>
       <c r="L113" s="14"/>
       <c r="M113" s="14"/>
       <c r="N113" s="14"/>
     </row>
-    <row r="114" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K114" s="14"/>
       <c r="L114" s="14"/>
       <c r="M114" s="14"/>
       <c r="N114" s="14"/>
     </row>
-    <row r="115" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K115" s="14"/>
       <c r="L115" s="14"/>
       <c r="M115" s="14"/>
       <c r="N115" s="14"/>
     </row>
-    <row r="116" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K116" s="14"/>
       <c r="L116" s="14"/>
       <c r="M116" s="14"/>
       <c r="N116" s="14"/>
     </row>
-    <row r="117" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K117" s="14"/>
       <c r="L117" s="14"/>
       <c r="M117" s="14"/>
       <c r="N117" s="14"/>
     </row>
-    <row r="118" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K118" s="14"/>
       <c r="L118" s="14"/>
       <c r="M118" s="14"/>
       <c r="N118" s="14"/>
     </row>
-    <row r="119" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K119" s="14"/>
       <c r="L119" s="14"/>
       <c r="M119" s="14"/>
       <c r="N119" s="14"/>
     </row>
-    <row r="120" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K120" s="14"/>
       <c r="L120" s="14"/>
       <c r="M120" s="14"/>
       <c r="N120" s="14"/>
     </row>
-    <row r="121" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K121" s="14"/>
       <c r="L121" s="14"/>
       <c r="M121" s="14"/>
       <c r="N121" s="14"/>
     </row>
-    <row r="122" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K122" s="14"/>
       <c r="L122" s="14"/>
       <c r="M122" s="14"/>
       <c r="N122" s="14"/>
     </row>
-    <row r="123" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K123" s="14"/>
       <c r="L123" s="14"/>
       <c r="M123" s="14"/>
       <c r="N123" s="14"/>
     </row>
-    <row r="124" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K124" s="14"/>
       <c r="L124" s="14"/>
       <c r="M124" s="14"/>
       <c r="N124" s="14"/>
     </row>
-    <row r="125" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K125" s="14"/>
       <c r="L125" s="14"/>
       <c r="M125" s="14"/>
       <c r="N125" s="14"/>
     </row>
-    <row r="142" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K142" s="12"/>
       <c r="L142" s="12"/>
       <c r="M142" s="12"/>
       <c r="N142" s="12"/>
     </row>
-    <row r="149" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="149" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K149" s="12"/>
       <c r="L149" s="12"/>
       <c r="M149" s="12"/>
       <c r="N149" s="12"/>
     </row>
-    <row r="155" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="155" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K155" s="12"/>
       <c r="L155" s="12"/>
       <c r="M155" s="12"/>
       <c r="N155" s="12"/>
     </row>
-    <row r="180" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="180" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K180" s="12"/>
       <c r="L180" s="12"/>
       <c r="M180" s="12"/>
       <c r="N180" s="12"/>
     </row>
-    <row r="182" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="182" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K182" s="12"/>
       <c r="L182" s="12"/>
       <c r="M182" s="12"/>
       <c r="N182" s="12"/>
     </row>
-    <row r="185" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="185" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K185" s="10"/>
       <c r="L185" s="10"/>
       <c r="M185" s="10"/>
       <c r="N185" s="10"/>
     </row>
-    <row r="196" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="196" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K196" s="10"/>
       <c r="L196" s="10"/>
       <c r="M196" s="10"/>
       <c r="N196" s="10"/>
     </row>
-    <row r="197" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="197" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K197" s="10"/>
       <c r="L197" s="10"/>
       <c r="M197" s="10"/>
       <c r="N197" s="10"/>
     </row>
-    <row r="199" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="199" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K199" s="12"/>
       <c r="L199" s="12"/>
       <c r="M199" s="12"/>
       <c r="N199" s="12"/>
     </row>
-    <row r="201" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="201" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K201" s="10"/>
       <c r="L201" s="10"/>
       <c r="M201" s="10"/>
       <c r="N201" s="10"/>
     </row>
-    <row r="210" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="210" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K210" s="12"/>
       <c r="L210" s="12"/>
       <c r="M210" s="12"/>
       <c r="N210" s="12"/>
     </row>
-    <row r="222" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="222" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K222" s="12"/>
       <c r="L222" s="12"/>
       <c r="M222" s="12"/>
       <c r="N222" s="12"/>
     </row>
-    <row r="224" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="224" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K224" s="12"/>
       <c r="L224" s="12"/>
       <c r="M224" s="12"/>
@@ -10869,22 +10876,22 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.9140625" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.4140625" customWidth="1"/>
-    <col min="5" max="5" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="16.9140625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
     <col min="7" max="7" width="13.83203125" customWidth="1"/>
-    <col min="8" max="8" width="14.4140625" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" customWidth="1"/>
-    <col min="11" max="11" width="22.9140625" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="33" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10919,7 +10926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>40</v>
       </c>
@@ -10954,7 +10961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>41</v>
       </c>
@@ -10989,7 +10996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>42</v>
       </c>
@@ -11024,7 +11031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>43</v>
       </c>
@@ -11059,7 +11066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>44</v>
       </c>
@@ -11094,7 +11101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>45</v>
       </c>
@@ -11129,7 +11136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>46</v>
       </c>
@@ -11164,7 +11171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>47</v>
       </c>
@@ -11199,7 +11206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>48</v>
       </c>
@@ -11234,7 +11241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>49</v>
       </c>
@@ -11269,7 +11276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>50</v>
       </c>
@@ -11304,7 +11311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>51</v>
       </c>
@@ -11339,7 +11346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>52</v>
       </c>
@@ -11374,7 +11381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>53</v>
       </c>
@@ -11409,7 +11416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>54</v>
       </c>
@@ -11444,7 +11451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>55</v>
       </c>
@@ -11479,7 +11486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>56</v>
       </c>
@@ -11514,7 +11521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>57</v>
       </c>
@@ -11549,7 +11556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>58</v>
       </c>
@@ -11584,7 +11591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>59</v>
       </c>
@@ -11634,25 +11641,24 @@
       <selection activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="14.58203125" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="2" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="6" max="6" width="16.08203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16" style="4" customWidth="1"/>
     <col min="7" max="7" width="14" style="4" customWidth="1"/>
     <col min="8" max="8" width="16" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15.25" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" style="4" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" style="4" customWidth="1"/>
     <col min="11" max="11" width="37" style="7" customWidth="1"/>
-    <col min="12" max="12" width="37.4140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="33.4140625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="42.75" style="7" customWidth="1"/>
+    <col min="12" max="12" width="37.33203125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="42.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="33" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11696,7 +11702,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>40</v>
       </c>
@@ -11740,7 +11746,7 @@
         <v>23.787794999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>40</v>
       </c>
@@ -11784,7 +11790,7 @@
         <v>24.777149999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="36">
         <v>41</v>
       </c>
@@ -11828,7 +11834,7 @@
         <v>24.749013000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="36">
         <v>41</v>
       </c>
@@ -11872,7 +11878,7 @@
         <v>24.627545999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="36">
         <v>41</v>
       </c>
@@ -11916,7 +11922,7 @@
         <v>24.571452000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="36">
         <v>41</v>
       </c>
@@ -11960,7 +11966,7 @@
         <v>25.786743000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="30">
         <v>42</v>
       </c>
@@ -12004,7 +12010,7 @@
         <v>25.9072</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="30">
         <v>42</v>
       </c>
@@ -12048,7 +12054,7 @@
         <v>25.757080999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="30">
         <v>42</v>
       </c>
@@ -12092,7 +12098,7 @@
         <v>25.814399999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="30">
         <v>42</v>
       </c>
@@ -12136,7 +12142,7 @@
         <v>24.905207000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="37">
         <v>43</v>
       </c>
@@ -12180,7 +12186,7 @@
         <v>25.212499999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="37">
         <v>43</v>
       </c>
@@ -12224,7 +12230,7 @@
         <v>25.692599999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="37">
         <v>43</v>
       </c>
@@ -12268,7 +12274,7 @@
         <v>25.666399999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="37">
         <v>43</v>
       </c>
@@ -12312,7 +12318,7 @@
         <v>25.495999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="38">
         <v>44</v>
       </c>
@@ -12356,7 +12362,7 @@
         <v>25.501000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="38">
         <v>44</v>
       </c>
@@ -12400,7 +12406,7 @@
         <v>25.436499999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="38">
         <v>44</v>
       </c>
@@ -12444,7 +12450,7 @@
         <v>25.979994999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="38">
         <v>44</v>
       </c>
@@ -12488,7 +12494,7 @@
         <v>25.204699999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="39">
         <v>45</v>
       </c>
@@ -12532,7 +12538,7 @@
         <v>25.2104</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="39">
         <v>45</v>
       </c>
@@ -12576,7 +12582,7 @@
         <v>25.063800000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="39">
         <v>45</v>
       </c>
@@ -12620,7 +12626,7 @@
         <v>25.000599999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="39">
         <v>45</v>
       </c>
@@ -12664,7 +12670,7 @@
         <v>25.3841</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="40">
         <v>46</v>
       </c>
@@ -12708,7 +12714,7 @@
         <v>25.619900000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="40">
         <v>46</v>
       </c>
@@ -12752,7 +12758,7 @@
         <v>25.274000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="40">
         <v>46</v>
       </c>
@@ -12796,7 +12802,7 @@
         <v>25.500499999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="40">
         <v>46</v>
       </c>
@@ -12840,7 +12846,7 @@
         <v>25.594000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="21">
         <v>47</v>
       </c>
@@ -12884,7 +12890,7 @@
         <v>25.499300000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
         <v>47</v>
       </c>
@@ -12928,7 +12934,7 @@
         <v>25.4434</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="21">
         <v>47</v>
       </c>
@@ -12972,7 +12978,7 @@
         <v>25.6096</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="21">
         <v>47</v>
       </c>
@@ -13016,7 +13022,7 @@
         <v>25.606300000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="41">
         <v>48</v>
       </c>
@@ -13060,7 +13066,7 @@
         <v>25.400400000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="41">
         <v>48</v>
       </c>
@@ -13104,7 +13110,7 @@
         <v>25.5291</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>49</v>
       </c>
@@ -13148,7 +13154,7 @@
         <v>25.315899999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>49</v>
       </c>
@@ -13192,7 +13198,7 @@
         <v>25.3689</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="42">
         <v>50</v>
       </c>
@@ -13236,7 +13242,7 @@
         <v>25.6557</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="42">
         <v>50</v>
       </c>
@@ -13280,7 +13286,7 @@
         <v>25.659099999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="42">
         <v>50</v>
       </c>
@@ -13324,7 +13330,7 @@
         <v>25.384899999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="42">
         <v>50</v>
       </c>
@@ -13368,7 +13374,7 @@
         <v>25.874099999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="43">
         <v>51</v>
       </c>
@@ -13412,7 +13418,7 @@
         <v>25.661200000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="43">
         <v>51</v>
       </c>
@@ -13456,7 +13462,7 @@
         <v>25.492999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="44">
         <v>52</v>
       </c>
@@ -13500,7 +13506,7 @@
         <v>25.3202</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="44">
         <v>52</v>
       </c>
@@ -13544,7 +13550,7 @@
         <v>25.445</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="44">
         <v>52</v>
       </c>
@@ -13588,7 +13594,7 @@
         <v>25.027899999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="44">
         <v>52</v>
       </c>
@@ -13632,7 +13638,7 @@
         <v>25.437100000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="40">
         <v>53</v>
       </c>
@@ -13676,7 +13682,7 @@
         <v>25.524899999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="40">
         <v>53</v>
       </c>
@@ -13720,7 +13726,7 @@
         <v>25.025400000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="40">
         <v>53</v>
       </c>
@@ -13764,7 +13770,7 @@
         <v>25.665500000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>54</v>
       </c>
@@ -13808,7 +13814,7 @@
         <v>25.663599999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>54</v>
       </c>
@@ -13852,7 +13858,7 @@
         <v>25.434899999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>54</v>
       </c>
@@ -13896,7 +13902,7 @@
         <v>26.162700000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>54</v>
       </c>
@@ -13940,7 +13946,7 @@
         <v>25.67</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="45">
         <v>55</v>
       </c>
@@ -13984,7 +13990,7 @@
         <v>25.372299999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="45">
         <v>55</v>
       </c>
@@ -14028,7 +14034,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="45">
         <v>55</v>
       </c>
@@ -14072,7 +14078,7 @@
         <v>25.6661</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="45">
         <v>55</v>
       </c>
@@ -14116,7 +14122,7 @@
         <v>25.633700000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="25">
         <v>56</v>
       </c>
@@ -14160,7 +14166,7 @@
         <v>25.143799999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="25">
         <v>56</v>
       </c>
@@ -14204,7 +14210,7 @@
         <v>25.380299999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="25">
         <v>56</v>
       </c>
@@ -14248,7 +14254,7 @@
         <v>25.6614</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="29">
         <v>57</v>
       </c>
@@ -14292,7 +14298,7 @@
         <v>25.545300000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="29">
         <v>57</v>
       </c>
@@ -14336,7 +14342,7 @@
         <v>25.671199999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="29">
         <v>57</v>
       </c>
@@ -14380,7 +14386,7 @@
         <v>25.622199999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="31">
         <v>58</v>
       </c>
@@ -14424,7 +14430,7 @@
         <v>24.924299999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="31">
         <v>58</v>
       </c>
@@ -14468,7 +14474,7 @@
         <v>23.220020999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>59</v>
       </c>
@@ -14512,7 +14518,7 @@
         <v>24.965800000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>59</v>
       </c>
@@ -14556,7 +14562,7 @@
         <v>25.1677</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -14568,145 +14574,145 @@
       <c r="I67" s="2"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K68" s="34"/>
       <c r="L68" s="34"/>
       <c r="M68" s="34"/>
       <c r="N68" s="34"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K69" s="34"/>
       <c r="L69" s="34"/>
       <c r="M69" s="34"/>
       <c r="N69" s="34"/>
     </row>
-    <row r="83" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K83" s="12"/>
       <c r="L83" s="12"/>
       <c r="M83" s="12"/>
       <c r="N83" s="12"/>
     </row>
-    <row r="102" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K102" s="12"/>
       <c r="L102" s="12"/>
       <c r="M102" s="12"/>
       <c r="N102" s="12"/>
     </row>
-    <row r="110" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K110" s="10"/>
       <c r="L110" s="10"/>
       <c r="M110" s="10"/>
       <c r="N110" s="10"/>
     </row>
-    <row r="117" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K117" s="12"/>
       <c r="L117" s="12"/>
       <c r="M117" s="12"/>
       <c r="N117" s="12"/>
     </row>
-    <row r="119" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K119" s="12"/>
       <c r="L119" s="12"/>
       <c r="M119" s="12"/>
       <c r="N119" s="12"/>
     </row>
-    <row r="136" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K136" s="12"/>
       <c r="L136" s="12"/>
       <c r="M136" s="12"/>
       <c r="N136" s="12"/>
     </row>
-    <row r="145" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K145" s="12"/>
       <c r="L145" s="12"/>
       <c r="M145" s="12"/>
       <c r="N145" s="12"/>
     </row>
-    <row r="147" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K147" s="12"/>
       <c r="L147" s="12"/>
       <c r="M147" s="12"/>
       <c r="N147" s="12"/>
     </row>
-    <row r="152" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="152" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K152" s="12"/>
       <c r="L152" s="12"/>
       <c r="M152" s="12"/>
       <c r="N152" s="12"/>
     </row>
-    <row r="169" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K169" s="12"/>
       <c r="L169" s="12"/>
       <c r="M169" s="12"/>
       <c r="N169" s="12"/>
     </row>
-    <row r="176" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K176" s="12"/>
       <c r="L176" s="12"/>
       <c r="M176" s="12"/>
       <c r="N176" s="12"/>
     </row>
-    <row r="182" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="182" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K182" s="12"/>
       <c r="L182" s="12"/>
       <c r="M182" s="12"/>
       <c r="N182" s="12"/>
     </row>
-    <row r="207" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="207" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K207" s="12"/>
       <c r="L207" s="12"/>
       <c r="M207" s="12"/>
       <c r="N207" s="12"/>
     </row>
-    <row r="209" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="209" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K209" s="12"/>
       <c r="L209" s="12"/>
       <c r="M209" s="12"/>
       <c r="N209" s="12"/>
     </row>
-    <row r="212" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="212" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K212" s="10"/>
       <c r="L212" s="10"/>
       <c r="M212" s="10"/>
       <c r="N212" s="10"/>
     </row>
-    <row r="223" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="223" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K223" s="10"/>
       <c r="L223" s="10"/>
       <c r="M223" s="10"/>
       <c r="N223" s="10"/>
     </row>
-    <row r="224" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="224" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K224" s="10"/>
       <c r="L224" s="10"/>
       <c r="M224" s="10"/>
       <c r="N224" s="10"/>
     </row>
-    <row r="226" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="226" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K226" s="12"/>
       <c r="L226" s="12"/>
       <c r="M226" s="12"/>
       <c r="N226" s="12"/>
     </row>
-    <row r="228" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="228" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K228" s="10"/>
       <c r="L228" s="10"/>
       <c r="M228" s="10"/>
       <c r="N228" s="10"/>
     </row>
-    <row r="237" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="237" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K237" s="12"/>
       <c r="L237" s="12"/>
       <c r="M237" s="12"/>
       <c r="N237" s="12"/>
     </row>
-    <row r="249" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="249" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K249" s="12"/>
       <c r="L249" s="12"/>
       <c r="M249" s="12"/>
       <c r="N249" s="12"/>
     </row>
-    <row r="251" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="251" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K251" s="12"/>
       <c r="L251" s="12"/>
       <c r="M251" s="12"/>
@@ -14726,21 +14732,21 @@
       <selection activeCell="I2" sqref="I2:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.9140625" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.4140625" customWidth="1"/>
-    <col min="5" max="5" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="16.9140625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
     <col min="7" max="7" width="13.83203125" customWidth="1"/>
-    <col min="8" max="8" width="14.4140625" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" customWidth="1"/>
-    <col min="11" max="11" width="22.9140625" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="33" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14775,7 +14781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>60</v>
       </c>
@@ -14810,7 +14816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>61</v>
       </c>
@@ -14845,7 +14851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>62</v>
       </c>
@@ -14880,7 +14886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>63</v>
       </c>
@@ -14915,7 +14921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>64</v>
       </c>
@@ -14950,7 +14956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>65</v>
       </c>
@@ -14985,7 +14991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>66</v>
       </c>
@@ -15020,7 +15026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>67</v>
       </c>
@@ -15055,7 +15061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>68</v>
       </c>
@@ -15090,7 +15096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>69</v>
       </c>
@@ -15125,7 +15131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>70</v>
       </c>
@@ -15160,7 +15166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>71</v>
       </c>
@@ -15195,7 +15201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>72</v>
       </c>
@@ -15230,7 +15236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>73</v>
       </c>
@@ -15265,7 +15271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>74</v>
       </c>
@@ -15300,7 +15306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>75</v>
       </c>
@@ -15335,7 +15341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>76</v>
       </c>
@@ -15370,7 +15376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>77</v>
       </c>
@@ -15405,7 +15411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>78</v>
       </c>
@@ -15440,7 +15446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>79</v>
       </c>
@@ -15490,25 +15496,24 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="14.58203125" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="2" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="6" max="6" width="16.08203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16" style="4" customWidth="1"/>
     <col min="7" max="7" width="14" style="4" customWidth="1"/>
     <col min="8" max="8" width="16" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15.25" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" style="4" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" style="4" customWidth="1"/>
     <col min="11" max="11" width="37" style="7" customWidth="1"/>
-    <col min="12" max="12" width="37.4140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="33.4140625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="42.75" style="7" customWidth="1"/>
+    <col min="12" max="12" width="37.33203125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="42.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="33" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15552,7 +15557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>60</v>
       </c>
@@ -15596,7 +15601,7 @@
         <v>20.314474000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>60</v>
       </c>
@@ -15640,7 +15645,7 @@
         <v>20.303747000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>61</v>
       </c>
@@ -15684,7 +15689,7 @@
         <v>26.315722000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>61</v>
       </c>
@@ -15728,7 +15733,7 @@
         <v>23.619018000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>61</v>
       </c>
@@ -15772,7 +15777,7 @@
         <v>24.805751999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>62</v>
       </c>
@@ -15816,7 +15821,7 @@
         <v>20.657883000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>62</v>
       </c>
@@ -15860,7 +15865,7 @@
         <v>20.685151999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>62</v>
       </c>
@@ -15904,7 +15909,7 @@
         <v>23.898728999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>62</v>
       </c>
@@ -15948,7 +15953,7 @@
         <v>24.512599999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>63</v>
       </c>
@@ -15992,7 +15997,7 @@
         <v>25.594000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>63</v>
       </c>
@@ -16036,7 +16041,7 @@
         <v>25.413900000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>63</v>
       </c>
@@ -16080,7 +16085,7 @@
         <v>25.179099999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>63</v>
       </c>
@@ -16124,7 +16129,7 @@
         <v>27.389600000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>64</v>
       </c>
@@ -16168,7 +16173,7 @@
         <v>24.508772</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>64</v>
       </c>
@@ -16212,7 +16217,7 @@
         <v>25.245899999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>64</v>
       </c>
@@ -16256,7 +16261,7 @@
         <v>25.778099999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>64</v>
       </c>
@@ -16300,7 +16305,7 @@
         <v>25.1797</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="46">
         <v>65</v>
       </c>
@@ -16344,7 +16349,7 @@
         <v>23.666944000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="46">
         <v>65</v>
       </c>
@@ -16388,7 +16393,7 @@
         <v>22.47015</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="46">
         <v>65</v>
       </c>
@@ -16432,7 +16437,7 @@
         <v>24.500568000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="46">
         <v>65</v>
       </c>
@@ -16476,7 +16481,7 @@
         <v>25.178249000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="46">
         <v>66</v>
       </c>
@@ -16520,7 +16525,7 @@
         <v>25.517399999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="46">
         <v>66</v>
       </c>
@@ -16564,7 +16569,7 @@
         <v>25.979199999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="46">
         <v>66</v>
       </c>
@@ -16608,7 +16613,7 @@
         <v>25.843800000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>66</v>
       </c>
@@ -16652,7 +16657,7 @@
         <v>25.818200000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>67</v>
       </c>
@@ -16696,7 +16701,7 @@
         <v>25.353999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>67</v>
       </c>
@@ -16740,7 +16745,7 @@
         <v>25.167200000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>67</v>
       </c>
@@ -16784,7 +16789,7 @@
         <v>25.505099999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>67</v>
       </c>
@@ -16828,7 +16833,7 @@
         <v>24.9192</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="47">
         <v>68</v>
       </c>
@@ -16872,7 +16877,7 @@
         <v>24.216785000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="47">
         <v>68</v>
       </c>
@@ -16916,7 +16921,7 @@
         <v>24.741800000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="47">
         <v>68</v>
       </c>
@@ -16960,7 +16965,7 @@
         <v>24.709700000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="47">
         <v>68</v>
       </c>
@@ -17004,7 +17009,7 @@
         <v>25.334499999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>69</v>
       </c>
@@ -17048,7 +17053,7 @@
         <v>24.317246999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>69</v>
       </c>
@@ -17092,7 +17097,7 @@
         <v>24.254612000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>69</v>
       </c>
@@ -17136,7 +17141,7 @@
         <v>24.7257</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>69</v>
       </c>
@@ -17180,7 +17185,7 @@
         <v>24.7151</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="48">
         <v>70</v>
       </c>
@@ -17224,7 +17229,7 @@
         <v>25.062669</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="48">
         <v>70</v>
       </c>
@@ -17268,7 +17273,7 @@
         <v>25.2148</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="48">
         <v>70</v>
       </c>
@@ -17312,7 +17317,7 @@
         <v>25.538499999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="48">
         <v>70</v>
       </c>
@@ -17356,7 +17361,7 @@
         <v>25.360199999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>71</v>
       </c>
@@ -17400,7 +17405,7 @@
         <v>24.491800000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>71</v>
       </c>
@@ -17444,7 +17449,7 @@
         <v>25.398700000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>71</v>
       </c>
@@ -17488,7 +17493,7 @@
         <v>25.534500000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>71</v>
       </c>
@@ -17532,7 +17537,7 @@
         <v>25.352599999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>72</v>
       </c>
@@ -17576,7 +17581,7 @@
         <v>24.750800000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>72</v>
       </c>
@@ -17620,7 +17625,7 @@
         <v>24.487200000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>72</v>
       </c>
@@ -17664,7 +17669,7 @@
         <v>25.531700000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>72</v>
       </c>
@@ -17708,7 +17713,7 @@
         <v>25.9725</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="49">
         <v>73</v>
       </c>
@@ -17752,7 +17757,7 @@
         <v>25.197199999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="49">
         <v>73</v>
       </c>
@@ -17796,7 +17801,7 @@
         <v>25.1965</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="49">
         <v>73</v>
       </c>
@@ -17840,7 +17845,7 @@
         <v>25.790400000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="49">
         <v>73</v>
       </c>
@@ -17884,7 +17889,7 @@
         <v>25.4802</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="47">
         <v>74</v>
       </c>
@@ -17928,7 +17933,7 @@
         <v>25.934999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="47">
         <v>74</v>
       </c>
@@ -17972,7 +17977,7 @@
         <v>25.484000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="47">
         <v>74</v>
       </c>
@@ -18016,7 +18021,7 @@
         <v>25.528199999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="47">
         <v>74</v>
       </c>
@@ -18060,7 +18065,7 @@
         <v>25.835899999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>75</v>
       </c>
@@ -18104,7 +18109,7 @@
         <v>23.503862000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>75</v>
       </c>
@@ -18148,7 +18153,7 @@
         <v>25.479700000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>75</v>
       </c>
@@ -18192,7 +18197,7 @@
         <v>24.566700000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>75</v>
       </c>
@@ -18236,7 +18241,7 @@
         <v>25.007300000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>76</v>
       </c>
@@ -18280,7 +18285,7 @@
         <v>21.394397999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>76</v>
       </c>
@@ -18324,7 +18329,7 @@
         <v>24.396087999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>76</v>
       </c>
@@ -18368,7 +18373,7 @@
         <v>24.946484999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>76</v>
       </c>
@@ -18412,7 +18417,7 @@
         <v>25.881799999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>77</v>
       </c>
@@ -18456,7 +18461,7 @@
         <v>27.136973000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>77</v>
       </c>
@@ -18500,7 +18505,7 @@
         <v>28.268052000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <v>77</v>
       </c>
@@ -18544,7 +18549,7 @@
         <v>29.597235999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <v>78</v>
       </c>
@@ -18588,7 +18593,7 @@
         <v>23.66574</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <v>78</v>
       </c>
@@ -18632,7 +18637,7 @@
         <v>23.029086</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <v>79</v>
       </c>
@@ -18676,127 +18681,127 @@
         <v>24.926576000000001</v>
       </c>
     </row>
-    <row r="86" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K86" s="12"/>
       <c r="L86" s="12"/>
       <c r="M86" s="12"/>
       <c r="N86" s="12"/>
     </row>
-    <row r="94" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K94" s="10"/>
       <c r="L94" s="10"/>
       <c r="M94" s="10"/>
       <c r="N94" s="10"/>
     </row>
-    <row r="101" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K101" s="12"/>
       <c r="L101" s="12"/>
       <c r="M101" s="12"/>
       <c r="N101" s="12"/>
     </row>
-    <row r="103" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K103" s="12"/>
       <c r="L103" s="12"/>
       <c r="M103" s="12"/>
       <c r="N103" s="12"/>
     </row>
-    <row r="120" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K120" s="12"/>
       <c r="L120" s="12"/>
       <c r="M120" s="12"/>
       <c r="N120" s="12"/>
     </row>
-    <row r="129" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K129" s="12"/>
       <c r="L129" s="12"/>
       <c r="M129" s="12"/>
       <c r="N129" s="12"/>
     </row>
-    <row r="131" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K131" s="12"/>
       <c r="L131" s="12"/>
       <c r="M131" s="12"/>
       <c r="N131" s="12"/>
     </row>
-    <row r="136" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K136" s="12"/>
       <c r="L136" s="12"/>
       <c r="M136" s="12"/>
       <c r="N136" s="12"/>
     </row>
-    <row r="153" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K153" s="12"/>
       <c r="L153" s="12"/>
       <c r="M153" s="12"/>
       <c r="N153" s="12"/>
     </row>
-    <row r="160" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="160" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K160" s="12"/>
       <c r="L160" s="12"/>
       <c r="M160" s="12"/>
       <c r="N160" s="12"/>
     </row>
-    <row r="166" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="166" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K166" s="12"/>
       <c r="L166" s="12"/>
       <c r="M166" s="12"/>
       <c r="N166" s="12"/>
     </row>
-    <row r="191" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="191" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K191" s="12"/>
       <c r="L191" s="12"/>
       <c r="M191" s="12"/>
       <c r="N191" s="12"/>
     </row>
-    <row r="193" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="193" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K193" s="12"/>
       <c r="L193" s="12"/>
       <c r="M193" s="12"/>
       <c r="N193" s="12"/>
     </row>
-    <row r="196" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="196" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K196" s="10"/>
       <c r="L196" s="10"/>
       <c r="M196" s="10"/>
       <c r="N196" s="10"/>
     </row>
-    <row r="207" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="207" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K207" s="10"/>
       <c r="L207" s="10"/>
       <c r="M207" s="10"/>
       <c r="N207" s="10"/>
     </row>
-    <row r="208" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="208" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K208" s="10"/>
       <c r="L208" s="10"/>
       <c r="M208" s="10"/>
       <c r="N208" s="10"/>
     </row>
-    <row r="210" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="210" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K210" s="12"/>
       <c r="L210" s="12"/>
       <c r="M210" s="12"/>
       <c r="N210" s="12"/>
     </row>
-    <row r="212" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="212" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K212" s="10"/>
       <c r="L212" s="10"/>
       <c r="M212" s="10"/>
       <c r="N212" s="10"/>
     </row>
-    <row r="221" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="221" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K221" s="12"/>
       <c r="L221" s="12"/>
       <c r="M221" s="12"/>
       <c r="N221" s="12"/>
     </row>
-    <row r="233" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="233" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K233" s="12"/>
       <c r="L233" s="12"/>
       <c r="M233" s="12"/>
       <c r="N233" s="12"/>
     </row>
-    <row r="235" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="235" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K235" s="12"/>
       <c r="L235" s="12"/>
       <c r="M235" s="12"/>
@@ -18816,21 +18821,21 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="13.58203125" customWidth="1"/>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="16.4140625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="7" width="13.6640625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="15.25" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="44.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="33" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18865,7 +18870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>80</v>
       </c>
@@ -18900,7 +18905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>81</v>
       </c>
@@ -18935,7 +18940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>82</v>
       </c>
@@ -18970,7 +18975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>83</v>
       </c>
@@ -19005,7 +19010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>84</v>
       </c>
@@ -19040,7 +19045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>85</v>
       </c>
@@ -19075,7 +19080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>86</v>
       </c>
@@ -19110,7 +19115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>87</v>
       </c>
@@ -19145,7 +19150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>88</v>
       </c>
@@ -19180,7 +19185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>89</v>
       </c>
@@ -19215,7 +19220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>90</v>
       </c>
@@ -19250,7 +19255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>91</v>
       </c>
@@ -19285,7 +19290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>92</v>
       </c>
@@ -19320,7 +19325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>93</v>
       </c>
@@ -19355,7 +19360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>94</v>
       </c>
@@ -19390,7 +19395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>95</v>
       </c>
@@ -19425,7 +19430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>96</v>
       </c>
@@ -19460,7 +19465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>97</v>
       </c>
@@ -19495,7 +19500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>98</v>
       </c>
@@ -19530,7 +19535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>99</v>
       </c>
